--- a/2.编码进度表—濮盛奇.xlsx
+++ b/2.编码进度表—濮盛奇.xlsx
@@ -98,12 +98,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -119,21 +119,8 @@
     </font>
     <font>
       <b/>
-      <sz val="26"/>
-      <color indexed="8"/>
-      <name val="隶书"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -151,9 +138,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -163,6 +172,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -179,9 +196,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,14 +219,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,6 +233,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -225,56 +323,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -285,91 +349,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -410,7 +391,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,25 +406,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,13 +574,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,193 +598,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,11 +715,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,8 +733,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,17 +769,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,7 +808,42 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,17 +857,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,35 +877,6 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,271 +924,262 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="45" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1277,15 +1225,15 @@
     <cellStyle name="汇总" xfId="38" builtinId="25"/>
     <cellStyle name="40% - 着色 5" xfId="39"/>
     <cellStyle name="好" xfId="40" builtinId="26"/>
-    <cellStyle name="着色 5" xfId="41"/>
-    <cellStyle name="适中" xfId="42" builtinId="28"/>
+    <cellStyle name="适中" xfId="41" builtinId="28"/>
+    <cellStyle name="着色 5" xfId="42"/>
     <cellStyle name="标题 1 2" xfId="43"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="48"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="49" builtinId="34"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
+    <cellStyle name="输出 2" xfId="49"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="50" builtinId="35"/>
     <cellStyle name="强调文字颜色 3" xfId="51" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
@@ -1295,8 +1243,8 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="56" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="59"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="适中 2" xfId="60"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
     <cellStyle name="标题 2 2" xfId="62"/>
     <cellStyle name="标题 3 2" xfId="63"/>
@@ -1651,20 +1599,20 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.1296296296296" style="15" customWidth="1"/>
-    <col min="2" max="2" width="20.6666666666667" style="15" customWidth="1"/>
-    <col min="3" max="3" width="20.7777777777778" style="16" customWidth="1"/>
-    <col min="4" max="4" width="21" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="14.1296296296296" style="16" customWidth="1"/>
-    <col min="7" max="7" width="24.1296296296296" style="16" customWidth="1"/>
-    <col min="8" max="8" width="91.3796296296296" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="16.1296296296296" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.6666666666667" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.7777777777778" style="13" customWidth="1"/>
+    <col min="4" max="4" width="21" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="13" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="13" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="13" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1" spans="1:8">
@@ -1716,7 +1664,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>11</v>
@@ -1741,10 +1689,10 @@
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="5"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8">
@@ -1757,10 +1705,10 @@
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="5"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8">
@@ -1773,10 +1721,10 @@
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:8">
       <c r="A7" s="5"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8">
@@ -1788,10 +1736,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="7"/>
@@ -1806,8 +1754,8 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="7"/>
@@ -1822,8 +1770,8 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="7"/>
@@ -1838,8 +1786,8 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="7"/>
@@ -1854,7 +1802,7 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A12" s="14"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
@@ -1873,10 +1821,10 @@
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8">
@@ -1994,10 +1942,10 @@
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8">
@@ -2010,10 +1958,10 @@
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="5"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8">
@@ -2026,10 +1974,10 @@
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="5"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8">
@@ -2041,10 +1989,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="15.6" spans="1:8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="7"/>
@@ -2059,8 +2007,8 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" ht="15.6" spans="1:8">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="7"/>
@@ -2075,8 +2023,8 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="15.6" spans="1:8">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="7"/>
@@ -2091,8 +2039,8 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="15.6" spans="1:8">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="7"/>
@@ -2107,7 +2055,7 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="15.6" spans="1:8">
-      <c r="A12" s="14"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
@@ -2126,10 +2074,10 @@
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8">
@@ -2246,10 +2194,10 @@
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8">
@@ -2262,10 +2210,10 @@
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="5"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8">
@@ -2278,10 +2226,10 @@
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="5"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8">
@@ -2293,10 +2241,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="15.6" spans="1:8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="7"/>
@@ -2311,8 +2259,8 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" ht="15.6" spans="1:8">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="7"/>
@@ -2327,8 +2275,8 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="15.6" spans="1:8">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="7"/>
@@ -2343,8 +2291,8 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="15.6" spans="1:8">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="7"/>
@@ -2359,7 +2307,7 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="15.6" spans="1:8">
-      <c r="A12" s="14"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
@@ -2378,10 +2326,10 @@
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8">
@@ -2498,10 +2446,10 @@
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8">
@@ -2514,10 +2462,10 @@
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="5"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8">
@@ -2530,10 +2478,10 @@
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="5"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8">
@@ -2545,10 +2493,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="15.6" spans="1:8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="7"/>
@@ -2563,8 +2511,8 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" ht="15.6" spans="1:8">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="7"/>
@@ -2579,8 +2527,8 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="15.6" spans="1:8">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="7"/>
@@ -2595,8 +2543,8 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="15.6" spans="1:8">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="7"/>
@@ -2611,7 +2559,7 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="15.6" spans="1:8">
-      <c r="A12" s="14"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
@@ -2630,10 +2578,10 @@
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8">
@@ -2750,10 +2698,10 @@
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8">
@@ -2766,10 +2714,10 @@
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="5"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8">
@@ -2782,10 +2730,10 @@
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="5"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8">
@@ -2797,10 +2745,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="15.6" spans="1:8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="7"/>
@@ -2815,8 +2763,8 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" ht="15.6" spans="1:8">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="7"/>
@@ -2831,8 +2779,8 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="15.6" spans="1:8">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="7"/>
@@ -2847,8 +2795,8 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="15.6" spans="1:8">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="7"/>
@@ -2863,7 +2811,7 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="15.6" spans="1:8">
-      <c r="A12" s="14"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
@@ -2882,10 +2830,10 @@
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8">
@@ -3002,10 +2950,10 @@
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8">
@@ -3018,10 +2966,10 @@
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="5"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8">
@@ -3034,10 +2982,10 @@
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="5"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8">
@@ -3049,10 +2997,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="15.6" spans="1:8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="7"/>
@@ -3067,8 +3015,8 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" ht="15.6" spans="1:8">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="7"/>
@@ -3083,8 +3031,8 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="15.6" spans="1:8">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="7"/>
@@ -3099,8 +3047,8 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="15.6" spans="1:8">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="7"/>
@@ -3115,7 +3063,7 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="15.6" spans="1:8">
-      <c r="A12" s="14"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
@@ -3134,10 +3082,10 @@
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8">

--- a/2.编码进度表—濮盛奇.xlsx
+++ b/2.编码进度表—濮盛奇.xlsx
@@ -98,9 +98,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
@@ -138,10 +138,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -152,36 +212,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,31 +275,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,69 +329,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -307,52 +342,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -406,217 +406,217 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,25 +716,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,17 +745,76 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,10 +831,19 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color indexed="49"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,65 +877,6 @@
       <top/>
       <bottom style="thick">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,198 +924,198 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1134,7 +1134,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="42" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1598,8 +1598,8 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1660,9 +1660,15 @@
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="7">
+        <v>43641</v>
+      </c>
+      <c r="D3" s="7">
+        <v>43641</v>
+      </c>
+      <c r="E3" s="7">
+        <v>43641</v>
+      </c>
       <c r="F3" s="8">
         <v>1</v>
       </c>
@@ -1676,11 +1682,17 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="7">
+        <v>43642</v>
+      </c>
+      <c r="D4" s="7">
+        <v>43642</v>
+      </c>
+      <c r="E4" s="7">
+        <v>43642</v>
+      </c>
       <c r="F4" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>11</v>
@@ -1742,11 +1754,17 @@
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="7">
+        <v>43641</v>
+      </c>
+      <c r="D8" s="7">
+        <v>43641</v>
+      </c>
+      <c r="E8" s="7">
+        <v>43641</v>
+      </c>
       <c r="F8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>11</v>
@@ -1758,11 +1776,17 @@
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="7">
+        <v>43643</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43643</v>
+      </c>
+      <c r="E9" s="7">
+        <v>43643</v>
+      </c>
       <c r="F9" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>11</v>
@@ -1774,11 +1798,17 @@
       <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="7">
+        <v>43644</v>
+      </c>
+      <c r="D10" s="7">
+        <v>43644</v>
+      </c>
+      <c r="E10" s="7">
+        <v>43644</v>
+      </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>11</v>

--- a/2.编码进度表—濮盛奇.xlsx
+++ b/2.编码进度表—濮盛奇.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22103" windowHeight="9947"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="濮盛奇" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="25">
   <si>
     <t>进度控制表-旅游网的设计与实现</t>
   </si>
@@ -92,6 +92,9 @@
   <si>
     <t>功能优化</t>
   </si>
+  <si>
+    <t>已完成</t>
+  </si>
 </sst>
 </file>
 
@@ -99,8 +102,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
@@ -138,23 +141,125 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,8 +271,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,10 +281,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -189,12 +294,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -204,157 +358,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
@@ -406,13 +409,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,199 +577,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,6 +719,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -730,28 +748,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,8 +760,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,74 +777,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,9 +807,79 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,196 +927,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1598,7 +1601,7 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1882,8 +1885,8 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1943,14 +1946,20 @@
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="7">
+        <v>43642</v>
+      </c>
+      <c r="D3" s="7">
+        <v>43642</v>
+      </c>
+      <c r="E3" s="7">
+        <v>43642</v>
+      </c>
       <c r="F3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H3" s="10"/>
     </row>
@@ -1963,7 +1972,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>11</v>
@@ -2045,7 +2054,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>11</v>
